--- a/TestSheet/DocTalk.xlsx
+++ b/TestSheet/DocTalk.xlsx
@@ -10,7 +10,8 @@
     <sheet name="DocTalk_Run" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DocTalk_Run!$B$1:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DocTalk_Run!$B$2:$B$3</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">DocTalk_Run!$B$2:$B$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
     <t>SignIn</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
